--- a/WNV Surveillance 2015-2023/WNV-s 2023 (LNW)/Week 27/FC_LV q-RTPCR Plate 2023 Week 27.xlsx
+++ b/WNV Surveillance 2015-2023/WNV-s 2023 (LNW)/Week 27/FC_LV q-RTPCR Plate 2023 Week 27.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rsch-Ebel\WNV Surveillance 2015-2023\WNV-s 2023 (LNW)\Week 26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Programming Directory/Ebel Lab/WNV_FoCo_Surveillance/WNV Surveillance 2015-2023/WNV-s 2023 (LNW)/Week 27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{C8E85AFA-E1AE-464C-B753-36ADB1737DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32969048-E75A-42AE-9312-06974F651054}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6ED02B-CBF9-894D-BC04-91FB1817015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="885" windowWidth="17880" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="880" windowWidth="27020" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$N$1:$AD$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$N$1:$AC$55</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="350">
   <si>
     <t>q-RT PCR : WNV Surveillance 2023 Week 27 plate 1</t>
   </si>
@@ -1095,7 +1095,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,6 +1167,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1606,7 +1607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1735,38 +1736,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,9 +1825,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1898,6 +1868,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2191,33 +2185,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE92"/>
+  <dimension ref="A1:AD109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W90" sqref="W90"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2232,42 +2225,41 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
+    </row>
+    <row r="2" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="54"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="P2" s="53" t="s">
+      <c r="O2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="54" t="s">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="54"/>
-    </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1">
+      <c r="X2" s="100"/>
+    </row>
+    <row r="3" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -2305,49 +2297,49 @@
       <c r="M3" s="4">
         <v>12</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="19">
+      <c r="O3" s="7"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="19">
         <v>1</v>
       </c>
+      <c r="R3" s="20">
+        <v>2</v>
+      </c>
       <c r="S3" s="20">
+        <v>3</v>
+      </c>
+      <c r="T3" s="20">
+        <v>4</v>
+      </c>
+      <c r="U3" s="20">
+        <v>5</v>
+      </c>
+      <c r="V3" s="20">
+        <v>6</v>
+      </c>
+      <c r="W3" s="20">
+        <v>7</v>
+      </c>
+      <c r="X3" s="20">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="20">
-        <v>3</v>
-      </c>
-      <c r="U3" s="20">
-        <v>4</v>
-      </c>
-      <c r="V3" s="20">
-        <v>5</v>
-      </c>
-      <c r="W3" s="20">
-        <v>6</v>
-      </c>
-      <c r="X3" s="20">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="20">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="20">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="20">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="20">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="21">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2387,13 +2379,16 @@
       <c r="M4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="O4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="P4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="Q4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="32" t="s">
@@ -2423,18 +2418,15 @@
       <c r="AA4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AB4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>18</v>
       </c>
-      <c r="AE4" s="39"/>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AD4" s="39"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2474,48 +2466,48 @@
       <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="23" t="s">
+      <c r="O5" s="97"/>
+      <c r="P5" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q5" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="R5" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="75">
+      <c r="AB5" s="65">
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -2555,48 +2547,48 @@
       <c r="M6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="24" t="s">
+      <c r="O6" s="98"/>
+      <c r="P6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="65">
+      <c r="Q6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="55">
         <v>18.019636154174805</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -2636,13 +2628,16 @@
       <c r="M7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="O7" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="Q7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S7" s="32" t="s">
@@ -2669,17 +2664,14 @@
       <c r="Z7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB7" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC7" s="66" t="s">
+      <c r="AA7" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB7" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -2719,48 +2711,48 @@
       <c r="M8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="23" t="s">
+      <c r="O8" s="97"/>
+      <c r="P8" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q8" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X8" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="72" t="s">
+      <c r="AA8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="67">
+      <c r="AB8" s="57">
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2800,48 +2792,48 @@
       <c r="M9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="24" t="s">
+      <c r="O9" s="98"/>
+      <c r="P9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="65">
+      <c r="Q9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="55">
         <v>21.407716751098633</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -2881,16 +2873,19 @@
       <c r="M10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="50" t="s">
+      <c r="O10" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="P10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="78" t="s">
+      <c r="Q10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="T10" s="32" t="s">
@@ -2914,17 +2909,14 @@
       <c r="Z10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB10" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC10" s="66" t="s">
+      <c r="AA10" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>94</v>
       </c>
@@ -2962,98 +2954,101 @@
         <v>105</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="23" t="s">
+      <c r="O11" s="97"/>
+      <c r="P11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="Q11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="81" t="s">
+      <c r="R11" s="71" t="s">
         <v>34</v>
       </c>
+      <c r="S11" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="T11" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W11" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AC11" s="67">
+      <c r="AB11" s="57">
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="P12" s="52"/>
-      <c r="Q12" s="24" t="s">
+    <row r="12" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="98"/>
+      <c r="P12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="79">
+      <c r="Q12" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="69">
         <v>35.652088165283203</v>
       </c>
-      <c r="T12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB12" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC12" s="65">
+      <c r="S12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA12" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="55">
         <v>24.388219833374023</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D13" s="16"/>
-      <c r="P13" s="50" t="s">
+      <c r="O13" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="22" t="s">
+      <c r="P13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="Q13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S13" s="32" t="s">
@@ -3080,120 +3075,117 @@
       <c r="Z13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB13" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC13" s="66" t="s">
+      <c r="AA13" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="23" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q14" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="R14" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U14" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W14" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X14" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA14" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AB14" s="72" t="s">
+      <c r="AA14" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="AC14" s="67">
+      <c r="AB14" s="57">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="55" t="s">
+    <row r="15" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="24" t="s">
+      <c r="O15" s="98"/>
+      <c r="P15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB15" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC15" s="65">
+      <c r="Q15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA15" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="55">
         <v>27.858415603637695</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1">
+    <row r="16" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2">
         <v>1</v>
@@ -3231,13 +3223,16 @@
       <c r="M16" s="4">
         <v>12</v>
       </c>
-      <c r="P16" s="50" t="s">
+      <c r="O16" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="P16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="Q16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="32" t="s">
@@ -3255,26 +3250,23 @@
       <c r="W16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y16" s="78" t="s">
+      <c r="X16" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="32" t="s">
         <v>17</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB16" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC16" s="66" t="s">
+      <c r="AA16" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB16" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -3314,48 +3306,48 @@
       <c r="M17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="23" t="s">
+      <c r="O17" s="97"/>
+      <c r="P17" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q17" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="R17" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S17" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U17" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V17" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="X17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Y17" s="81" t="s">
+      <c r="X17" s="71" t="s">
         <v>66</v>
       </c>
+      <c r="Y17" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="Z17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AB17" s="72" t="s">
+      <c r="AA17" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="68">
+      <c r="AB17" s="58">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3395,48 +3387,48 @@
       <c r="M18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="24" t="s">
+      <c r="O18" s="98"/>
+      <c r="P18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X18" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y18" s="79">
+      <c r="Q18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="X18" s="69">
         <v>34.382472991943359</v>
       </c>
-      <c r="Z18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB18" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC18" s="65">
+      <c r="Y18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="55">
         <v>30.826793670654297</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -3476,13 +3468,16 @@
       <c r="M19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="50" t="s">
+      <c r="O19" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" s="22" t="s">
+      <c r="P19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="Q19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S19" s="32" t="s">
@@ -3509,17 +3504,14 @@
       <c r="Z19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB19" s="73" t="s">
+      <c r="AA19" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AC19" s="66" t="s">
+      <c r="AB19" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -3559,48 +3551,48 @@
       <c r="M20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="23" t="s">
+      <c r="O20" s="97"/>
+      <c r="P20" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q20" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="R20" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA20" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="74" t="s">
+      <c r="AA20" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="AC20" s="68">
+      <c r="AB20" s="58">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -3640,48 +3632,48 @@
       <c r="M21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="24" t="s">
+      <c r="O21" s="98"/>
+      <c r="P21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB21" s="77">
+      <c r="Q21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="67">
         <v>18.645761489868164</v>
       </c>
-      <c r="AC21" s="65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AB21" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -3721,13 +3713,16 @@
       <c r="M22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="50" t="s">
+      <c r="O22" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="P22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="34" t="s">
+      <c r="Q22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S22" s="32" t="s">
@@ -3754,17 +3749,14 @@
       <c r="Z22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA22" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB22" s="73" t="s">
+      <c r="AA22" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="AC22" s="69" t="s">
+      <c r="AB22" s="59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -3804,48 +3796,48 @@
       <c r="M23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="23" t="s">
+      <c r="O23" s="97"/>
+      <c r="P23" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q23" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="R23" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U23" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W23" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X23" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA23" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AA23" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="AC23" s="76">
+      <c r="AB23" s="66">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>94</v>
       </c>
@@ -3883,55 +3875,58 @@
         <v>105</v>
       </c>
       <c r="M24" s="15"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="24" t="s">
+      <c r="O24" s="98"/>
+      <c r="P24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC24" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="P25" s="50" t="s">
+      <c r="Q24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O25" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="Q25" s="22" t="s">
+      <c r="P25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="34" t="s">
+      <c r="Q25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S25" s="32" t="s">
@@ -3958,114 +3953,111 @@
       <c r="Z25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA25" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB25" s="29" t="s">
+      <c r="AA25" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="AC25" s="30"/>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="P26" s="51"/>
-      <c r="Q26" s="23" t="s">
+      <c r="AB25" s="30"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O26" s="97"/>
+      <c r="P26" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q26" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="R26" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V26" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W26" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X26" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y26" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA26" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AB26" s="25" t="s">
+      <c r="AA26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AC26" s="31"/>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" thickBot="1">
-      <c r="P27" s="52"/>
-      <c r="Q27" s="24" t="s">
+      <c r="AB26" s="31"/>
+    </row>
+    <row r="27" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="98"/>
+      <c r="P27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S27" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U27" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W27" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y27" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA27" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB27" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC27" s="30"/>
-    </row>
-    <row r="28" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A28" s="53" t="s">
+      <c r="Q27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA27" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" s="30"/>
+    </row>
+    <row r="28" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="54" t="s">
+      <c r="I28" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="54"/>
+      <c r="J28" s="100"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1">
+    <row r="29" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="2">
         <v>1</v>
@@ -4103,22 +4095,22 @@
       <c r="M29" s="4">
         <v>12</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="O29" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="54" t="s">
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="Y29" s="54"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="X29" s="100"/>
+    </row>
+    <row r="30" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -4156,49 +4148,49 @@
       <c r="M30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="9"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="20">
+        <v>1</v>
+      </c>
       <c r="R30" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T30" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U30" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W30" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X30" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y30" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z30" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA30" s="20">
-        <v>10</v>
-      </c>
-      <c r="AB30" s="20">
         <v>11</v>
       </c>
-      <c r="AC30" s="21">
+      <c r="AB30" s="21">
         <v>12</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AC30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -4236,13 +4228,16 @@
       <c r="M31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="50" t="s">
+      <c r="O31" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="23" t="s">
+      <c r="P31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="34" t="s">
+      <c r="Q31" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S31" s="32" t="s">
@@ -4272,18 +4267,15 @@
       <c r="AA31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AB31" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC31" s="33" t="s">
+      <c r="AB31" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AC31" t="s">
         <v>217</v>
       </c>
-      <c r="AE31" s="39"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AD31" s="39"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -4321,48 +4313,48 @@
       <c r="M32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="23" t="s">
+      <c r="O32" s="97"/>
+      <c r="P32" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q32" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="R32" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S32" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T32" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U32" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V32" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W32" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X32" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y32" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z32" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB32" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="AC32" s="75">
+      <c r="AB32" s="65">
         <v>10000000</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -4400,48 +4392,48 @@
       <c r="M33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="23" t="s">
+      <c r="O33" s="98"/>
+      <c r="P33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S33" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W33" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y33" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA33" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB33" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC33" s="65">
+      <c r="Q33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA33" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" s="55">
         <v>15.923370361328125</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
@@ -4479,13 +4471,16 @@
       <c r="M34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="51" t="s">
+      <c r="O34" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="23" t="s">
+      <c r="P34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="34" t="s">
+      <c r="Q34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S34" s="32" t="s">
@@ -4512,17 +4507,14 @@
       <c r="Z34" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA34" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB34" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC34" s="66" t="s">
+      <c r="AA34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB34" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>70</v>
       </c>
@@ -4560,48 +4552,48 @@
       <c r="M35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="23" t="s">
+      <c r="O35" s="97"/>
+      <c r="P35" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q35" s="26" t="s">
+        <v>118</v>
+      </c>
       <c r="R35" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T35" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U35" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V35" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W35" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X35" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y35" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z35" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA35" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="AB35" s="72" t="s">
+      <c r="AA35" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="AC35" s="67">
+      <c r="AB35" s="57">
         <v>1000000</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
@@ -4639,48 +4631,48 @@
       <c r="M36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="23" t="s">
+      <c r="O36" s="97"/>
+      <c r="P36" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S36" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U36" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W36" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y36" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA36" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB36" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC36" s="65">
+      <c r="Q36" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X36" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y36" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z36" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA36" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB36" s="55">
         <v>17.772592544555664</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>94</v>
       </c>
@@ -4716,13 +4708,16 @@
         <v>105</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="P37" s="50" t="s">
+      <c r="O37" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="Q37" s="23" t="s">
+      <c r="P37" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R37" s="34" t="s">
+      <c r="Q37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S37" s="32" t="s">
@@ -4749,118 +4744,115 @@
       <c r="Z37" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB37" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC37" s="66" t="s">
+      <c r="AA37" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB37" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
-      <c r="P38" s="51"/>
-      <c r="Q38" s="23" t="s">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O38" s="97"/>
+      <c r="P38" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q38" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="R38" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S38" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T38" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U38" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V38" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W38" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X38" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y38" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z38" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AB38" s="72" t="s">
+      <c r="AA38" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AC38" s="67">
+      <c r="AB38" s="57">
         <v>100000</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
-      <c r="A39" s="53" t="s">
+    <row r="39" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="54" t="s">
+      <c r="I39" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="J39" s="54"/>
+      <c r="J39" s="100"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="23" t="s">
+      <c r="O39" s="98"/>
+      <c r="P39" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z39" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB39" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC39" s="65">
+      <c r="Q39" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y39" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA39" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" s="55">
         <v>21.621175765991211</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1">
+    <row r="40" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="2">
         <v>1</v>
@@ -4898,13 +4890,16 @@
       <c r="M40" s="4">
         <v>12</v>
       </c>
-      <c r="P40" s="51" t="s">
+      <c r="O40" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="23" t="s">
+      <c r="P40" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="34" t="s">
+      <c r="Q40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S40" s="32" t="s">
@@ -4931,17 +4926,14 @@
       <c r="Z40" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA40" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB40" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC40" s="66" t="s">
+      <c r="AA40" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB40" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -4970,55 +4962,55 @@
         <v>283</v>
       </c>
       <c r="J41" s="26"/>
-      <c r="K41" s="58" t="s">
+      <c r="K41" s="49" t="s">
         <v>284</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="23" t="s">
+      <c r="O41" s="97"/>
+      <c r="P41" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q41" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="R41" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V41" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W41" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X41" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y41" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z41" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA41" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="AB41" s="72" t="s">
+      <c r="AA41" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AC41" s="67">
+      <c r="AB41" s="57">
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
@@ -5047,55 +5039,55 @@
         <v>292</v>
       </c>
       <c r="J42" s="26"/>
-      <c r="K42" s="58" t="s">
+      <c r="K42" s="49" t="s">
         <v>293</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="23" t="s">
+      <c r="O42" s="97"/>
+      <c r="P42" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R42" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S42" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T42" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U42" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V42" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="W42" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X42" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y42" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z42" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA42" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB42" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC42" s="65">
+      <c r="Q42" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X42" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y42" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z42" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA42" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB42" s="55">
         <v>25.606143951416016</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
@@ -5124,35 +5116,38 @@
         <v>301</v>
       </c>
       <c r="J43" s="26"/>
-      <c r="K43" s="58" t="s">
+      <c r="K43" s="49" t="s">
         <v>302</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P43" s="50" t="s">
+      <c r="O43" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q43" s="23" t="s">
+      <c r="P43" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="34" t="s">
+      <c r="Q43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S43" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T43" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U43" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="V43" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="W43" s="34" t="s">
+      <c r="T43" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="U43" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="V43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43" s="32" t="s">
         <v>17</v>
       </c>
       <c r="X43" s="32" t="s">
@@ -5164,17 +5159,14 @@
       <c r="Z43" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA43" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB43" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC43" s="66" t="s">
+      <c r="AA43" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB43" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -5203,55 +5195,55 @@
         <v>310</v>
       </c>
       <c r="J44" s="26"/>
-      <c r="K44" s="58" t="s">
+      <c r="K44" s="49" t="s">
         <v>311</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="23" t="s">
+      <c r="O44" s="97"/>
+      <c r="P44" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q44" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="R44" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S44" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="T44" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="U44" s="72" t="s">
+      <c r="T44" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="V44" s="87" t="s">
+      <c r="U44" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="W44" s="88" t="s">
+      <c r="V44" s="78" t="s">
         <v>157</v>
       </c>
+      <c r="W44" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="X44" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y44" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z44" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA44" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="AB44" s="72" t="s">
+      <c r="AA44" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="AC44" s="68">
+      <c r="AB44" s="58">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>58</v>
       </c>
@@ -5280,55 +5272,55 @@
         <v>319</v>
       </c>
       <c r="J45" s="26"/>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="49" t="s">
         <v>320</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="23" t="s">
+      <c r="O45" s="98"/>
+      <c r="P45" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R45" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S45" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T45" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U45" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="V45" s="79">
+      <c r="Q45" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" s="69">
         <v>29.850141525268555</v>
       </c>
+      <c r="V45" s="35" t="s">
+        <v>45</v>
+      </c>
       <c r="W45" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="X45" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y45" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z45" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA45" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB45" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC45" s="65">
+      <c r="X45" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y45" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z45" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA45" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB45" s="55">
         <v>30.926094055175781</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -5364,28 +5356,31 @@
       <c r="M46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P46" s="51" t="s">
+      <c r="O46" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="23" t="s">
+      <c r="P46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="34" t="s">
+      <c r="Q46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S46" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T46" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U46" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="V46" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="W46" s="34" t="s">
+      <c r="T46" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="V46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="W46" s="32" t="s">
         <v>17</v>
       </c>
       <c r="X46" s="32" t="s">
@@ -5397,17 +5392,14 @@
       <c r="Z46" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA46" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB46" s="73" t="s">
+      <c r="AA46" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AC46" s="66" t="s">
+      <c r="AB46" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
@@ -5443,48 +5435,48 @@
       <c r="M47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="23" t="s">
+      <c r="O47" s="97"/>
+      <c r="P47" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q47" s="26" t="s">
+        <v>163</v>
+      </c>
       <c r="R47" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="T47" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="U47" s="72" t="s">
+      <c r="T47" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="V47" s="90" t="s">
+      <c r="U47" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="W47" s="88" t="s">
+      <c r="V47" s="78" t="s">
         <v>168</v>
       </c>
+      <c r="W47" s="26" t="s">
+        <v>169</v>
+      </c>
       <c r="X47" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y47" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z47" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA47" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AB47" s="74" t="s">
+      <c r="AA47" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="AC47" s="68">
+      <c r="AB47" s="58">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
@@ -5516,55 +5508,58 @@
         <v>105</v>
       </c>
       <c r="M48" s="8"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="23" t="s">
+      <c r="O48" s="97"/>
+      <c r="P48" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R48" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S48" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T48" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U48" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="V48" s="79">
+      <c r="Q48" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S48" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="U48" s="69">
         <v>21.494668960571289</v>
       </c>
+      <c r="V48" s="35" t="s">
+        <v>45</v>
+      </c>
       <c r="W48" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="X48" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y48" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z48" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA48" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB48" s="64">
+      <c r="X48" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z48" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA48" s="54">
         <v>15.282430648803711</v>
       </c>
-      <c r="AC48" s="83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
-      <c r="P49" s="50" t="s">
+      <c r="AB48" s="73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="O49" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="Q49" s="23" t="s">
+      <c r="P49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="34" t="s">
+      <c r="Q49" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S49" s="32" t="s">
@@ -5591,2372 +5586,2238 @@
       <c r="Z49" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AA49" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB49" s="73" t="s">
+      <c r="AA49" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="AC49" s="69" t="s">
+      <c r="AB49" s="59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
-      <c r="P50" s="51"/>
-      <c r="Q50" s="23" t="s">
+    <row r="50" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="O50" s="97"/>
+      <c r="P50" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="Q50" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="R50" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S50" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T50" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U50" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V50" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W50" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X50" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y50" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z50" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA50" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="AB50" s="74" t="s">
+      <c r="AA50" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AC50" s="68">
+      <c r="AB50" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="14:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="98"/>
+      <c r="P51" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S51" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U51" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W51" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y51" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA51" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB51" s="73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N52" s="41"/>
+      <c r="O52" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA52" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB52" s="75"/>
+    </row>
+    <row r="53" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N53" s="42"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="R53" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="S53" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="T53" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="U53" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="V53" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="W53" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="X53" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y53" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z53" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA53" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB53" s="31"/>
+    </row>
+    <row r="54" spans="14:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N54" s="43"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R54" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V54" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X54" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z54" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA54" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB54" s="30"/>
+    </row>
+    <row r="55" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N55" s="44"/>
+    </row>
+    <row r="56" spans="14:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N56" s="42"/>
+      <c r="O56" s="99" t="s">
+        <v>347</v>
+      </c>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="X56" s="100"/>
+    </row>
+    <row r="57" spans="14:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="43"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="19">
+        <v>1</v>
+      </c>
+      <c r="R57" s="20">
+        <v>2</v>
+      </c>
+      <c r="S57" s="20">
+        <v>3</v>
+      </c>
+      <c r="T57" s="20">
+        <v>4</v>
+      </c>
+      <c r="U57" s="20">
+        <v>5</v>
+      </c>
+      <c r="V57" s="20">
+        <v>6</v>
+      </c>
+      <c r="W57" s="20">
+        <v>7</v>
+      </c>
+      <c r="X57" s="20">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="20">
+        <v>9</v>
+      </c>
+      <c r="Z57" s="20">
+        <v>10</v>
+      </c>
+      <c r="AA57" s="21">
+        <v>11</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>12</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N58" s="44"/>
+      <c r="O58" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N59" s="42"/>
+      <c r="O59" s="97"/>
+      <c r="P59" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="R59" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="S59" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="T59" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="U59" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="V59" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="W59" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="X59" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y59" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z59" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA59" s="85"/>
+      <c r="AB59" s="57">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="60" spans="14:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N60" s="43"/>
+      <c r="O60" s="98"/>
+      <c r="P60" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T60" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U60" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V60" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W60" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X60" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y60" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z60" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA60" s="83"/>
+      <c r="AB60" s="72">
+        <v>15.24433708190918</v>
+      </c>
+    </row>
+    <row r="61" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N61" s="44"/>
+      <c r="O61" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA61" s="84"/>
+      <c r="AB61" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N62" s="42"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q62" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R62" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="S62" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="T62" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="U62" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="V62" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="W62" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X62" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y62" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z62" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA62" s="85"/>
+      <c r="AB62" s="57">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="63" spans="14:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N63" s="43"/>
+      <c r="O63" s="98"/>
+      <c r="P63" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S63" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U63" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W63" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y63" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA63" s="83"/>
+      <c r="AB63" s="72">
+        <v>18.800045013427734</v>
+      </c>
+    </row>
+    <row r="64" spans="14:29" x14ac:dyDescent="0.2">
+      <c r="N64" s="44"/>
+      <c r="O64" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q64" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z64" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA64" s="84"/>
+      <c r="AB64" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N65" s="42"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q65" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="R65" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="S65" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="T65" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="U65" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="V65" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="W65" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="X65" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y65" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z65" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA65" s="85"/>
+      <c r="AB65" s="57">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" spans="14:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N66" s="45"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q66" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S66" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U66" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W66" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y66" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA66" s="83"/>
+      <c r="AB66" s="72">
+        <v>21.405012130737305</v>
+      </c>
+    </row>
+    <row r="67" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N67" s="44"/>
+      <c r="O67" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z67" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA67" s="84"/>
+      <c r="AB67" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N68" s="42"/>
+      <c r="O68" s="97"/>
+      <c r="P68" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q68" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="R68" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="S68" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="T68" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="U68" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="V68" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="W68" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X68" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y68" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z68" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA68" s="85"/>
+      <c r="AB68" s="57">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="69" spans="14:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N69" s="45"/>
+      <c r="O69" s="98"/>
+      <c r="P69" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R69" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S69" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T69" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U69" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V69" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W69" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X69" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y69" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z69" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA69" s="83"/>
+      <c r="AB69" s="72">
+        <v>26.114006042480469</v>
+      </c>
+    </row>
+    <row r="70" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N70" s="44"/>
+      <c r="O70" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA70" s="84"/>
+      <c r="AB70" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N71" s="46"/>
+      <c r="O71" s="97"/>
+      <c r="P71" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q71" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="R71" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S71" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="T71" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="U71" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="V71" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="W71" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X71" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y71" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z71" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA71" s="85"/>
+      <c r="AB71" s="58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="14:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N72" s="45"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R72" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S72" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="T72" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U72" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V72" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="W72" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X72" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y72" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z72" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA72" s="83"/>
+      <c r="AB72" s="72">
+        <v>29.381458282470703</v>
+      </c>
+    </row>
+    <row r="73" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N73" s="44"/>
+      <c r="O73" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P73" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q73" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R73" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="S73" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="T73" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U73" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="V73" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="W73" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X73" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y73" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB73" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N74" s="42"/>
+      <c r="O74" s="97"/>
+      <c r="P74" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q74" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="R74" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="S74" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="T74" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="U74" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="V74" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="W74" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="X74" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y74" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z74" s="51"/>
+      <c r="AA74" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB74" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="14:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N75" s="45"/>
+      <c r="O75" s="98"/>
+      <c r="P75" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R75" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="S75" s="69">
+        <v>20.032480239868164</v>
+      </c>
+      <c r="T75" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="U75" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="V75" s="69">
+        <v>27.208139419555664</v>
+      </c>
+      <c r="W75" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X75" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y75" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="74"/>
+      <c r="AB75" s="82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="N76" s="42"/>
+      <c r="O76" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R76" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="S76" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="T76" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U76" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V76" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W76" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X76" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y76" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z76" s="50"/>
+      <c r="AA76" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB76" s="59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="O77" s="97"/>
+      <c r="P77" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q77" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="R77" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="S77" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="T77" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="U77" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="V77" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="W77" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="X77" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y77" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB77" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="14:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="98"/>
+      <c r="P78" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q78" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R78" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="S78" s="69">
+        <v>25.283378601074219</v>
+      </c>
+      <c r="T78" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="U78" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V78" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W78" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X78" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y78" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z78" s="52"/>
+      <c r="AA78" s="63"/>
+      <c r="AB78" s="82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="O79" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="P79" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q79" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y79" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z79" s="50"/>
+      <c r="AA79" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB79" s="93"/>
+    </row>
+    <row r="80" spans="14:28" x14ac:dyDescent="0.2">
+      <c r="O80" s="97"/>
+      <c r="P80" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q80" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="R80" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="S80" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="T80" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="U80" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="V80" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="W80" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="X80" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y80" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z80" s="51"/>
+      <c r="AA80" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB80" s="94"/>
+    </row>
+    <row r="81" spans="15:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="98"/>
+      <c r="P81" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q81" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R81" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S81" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T81" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U81" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V81" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W81" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X81" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y81" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z81" s="52"/>
+      <c r="AA81" s="63"/>
+      <c r="AB81" s="93"/>
+    </row>
+    <row r="83" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="47"/>
+    </row>
+    <row r="84" spans="15:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="54" t="s">
+      <c r="P84" s="99"/>
+      <c r="Q84" s="99"/>
+      <c r="R84" s="99"/>
+      <c r="S84" s="99"/>
+      <c r="T84" s="99"/>
+      <c r="U84" s="99"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="J51" s="54"/>
-      <c r="L51" s="49" t="s">
+      <c r="X84" s="100"/>
+      <c r="Z84" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="M51" t="s">
+      <c r="AA84" t="s">
         <v>346</v>
       </c>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="23" t="s">
+    </row>
+    <row r="85" spans="15:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="12"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="19">
+        <v>1</v>
+      </c>
+      <c r="R85" s="20">
+        <v>2</v>
+      </c>
+      <c r="S85" s="20">
+        <v>3</v>
+      </c>
+      <c r="T85" s="20">
+        <v>4</v>
+      </c>
+      <c r="U85" s="20">
+        <v>5</v>
+      </c>
+      <c r="V85" s="20">
+        <v>6</v>
+      </c>
+      <c r="W85" s="20">
+        <v>7</v>
+      </c>
+      <c r="X85" s="20">
+        <v>8</v>
+      </c>
+      <c r="Y85" s="20">
+        <v>9</v>
+      </c>
+      <c r="Z85" s="92">
+        <v>10</v>
+      </c>
+      <c r="AA85" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O86" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="P86" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q86" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R86" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S86" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T86" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U86" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V86" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W86" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X86" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y86" s="84"/>
+      <c r="Z86" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA86" s="88"/>
+    </row>
+    <row r="87" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O87" s="97"/>
+      <c r="P87" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q87" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="R87" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="S87" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="T87" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="U87" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="V87" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="W87" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="X87" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y87" s="85"/>
+      <c r="Z87" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA87" s="89"/>
+    </row>
+    <row r="88" spans="15:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="98"/>
+      <c r="P88" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="R51" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S51" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T51" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U51" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V51" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W51" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X51" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y51" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z51" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA51" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB51" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC51" s="83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="19">
-        <v>1</v>
-      </c>
-      <c r="D52" s="20">
-        <v>2</v>
-      </c>
-      <c r="E52" s="20">
-        <v>3</v>
-      </c>
-      <c r="F52" s="20">
-        <v>4</v>
-      </c>
-      <c r="G52" s="20">
-        <v>5</v>
-      </c>
-      <c r="H52" s="20">
-        <v>6</v>
-      </c>
-      <c r="I52" s="20">
-        <v>7</v>
-      </c>
-      <c r="J52" s="20">
-        <v>8</v>
-      </c>
-      <c r="K52" s="20">
-        <v>9</v>
-      </c>
-      <c r="L52" s="103">
-        <v>10</v>
-      </c>
-      <c r="M52" s="21">
-        <v>11</v>
-      </c>
-      <c r="N52" s="11">
-        <v>12</v>
-      </c>
-      <c r="O52" s="41"/>
-      <c r="P52" s="51" t="s">
+      <c r="Q88" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R88" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S88" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T88" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U88" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V88" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W88" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X88" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y88" s="87"/>
+      <c r="Z88" s="69">
+        <v>32.749141693115234</v>
+      </c>
+      <c r="AA88" s="87"/>
+    </row>
+    <row r="89" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O89" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y89" s="84"/>
+      <c r="Z89" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA89" s="90"/>
+    </row>
+    <row r="90" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O90" s="97"/>
+      <c r="P90" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q90" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="R90" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="S90" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="T90" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="U90" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="V90" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="W90" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="X90" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y90" s="85"/>
+      <c r="Z90" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA90" s="91"/>
+    </row>
+    <row r="91" spans="15:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="98"/>
+      <c r="P91" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q91" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R91" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S91" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T91" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U91" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V91" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W91" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X91" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y91" s="87"/>
+      <c r="Z91" s="69">
+        <v>29.204946517944336</v>
+      </c>
+      <c r="AA91" s="87"/>
+    </row>
+    <row r="92" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O92" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P92" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q92" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y92" s="50"/>
+      <c r="Z92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA92" s="84"/>
+    </row>
+    <row r="93" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O93" s="97"/>
+      <c r="P93" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q93" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="R93" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="S93" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="T93" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="U93" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="V93" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="W93" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="X93" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y93" s="51"/>
+      <c r="Z93" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA93" s="85"/>
+    </row>
+    <row r="94" spans="15:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="98"/>
+      <c r="P94" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q94" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R94" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S94" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T94" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U94" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V94" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W94" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X94" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y94" s="53"/>
+      <c r="Z94" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA94" s="83"/>
+    </row>
+    <row r="95" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O95" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="P95" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q95" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y95" s="50"/>
+      <c r="Z95" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA95" s="84"/>
+    </row>
+    <row r="96" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O96" s="97"/>
+      <c r="P96" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q96" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="R96" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S96" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="T96" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="U96" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="V96" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="W96" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="X96" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y96" s="51"/>
+      <c r="Z96" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA96" s="85"/>
+    </row>
+    <row r="97" spans="15:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="98"/>
+      <c r="P97" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q97" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R97" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S97" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T97" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U97" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V97" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W97" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X97" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y97" s="53"/>
+      <c r="Z97" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA97" s="83"/>
+    </row>
+    <row r="98" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O98" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="P98" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q98" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y98" s="50"/>
+      <c r="Z98" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA98" s="84"/>
+    </row>
+    <row r="99" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O99" s="97"/>
+      <c r="P99" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q99" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="R99" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="S99" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="T99" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="U99" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="V99" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="W99" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="X99" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y99" s="51"/>
+      <c r="Z99" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA99" s="85"/>
+    </row>
+    <row r="100" spans="15:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="98"/>
+      <c r="P100" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q100" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R100" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S100" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T100" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U100" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V100" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W100" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X100" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y100" s="53"/>
+      <c r="Z100" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA100" s="83"/>
+    </row>
+    <row r="101" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O101" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P101" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R101" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S101" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T101" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U101" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V101" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W101" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="X101" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y101" s="50"/>
+      <c r="Z101" s="50"/>
+      <c r="AA101" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O102" s="97"/>
+      <c r="P102" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q102" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="R102" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="S102" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="T102" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="U102" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="V102" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="W102" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="X102" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y102" s="51"/>
+      <c r="Z102" s="51"/>
+      <c r="AA102" s="64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="15:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="98"/>
+      <c r="P103" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q103" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R103" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S103" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T103" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U103" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V103" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="W103" s="69">
+        <v>19.27507209777832</v>
+      </c>
+      <c r="X103" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y103" s="53"/>
+      <c r="Z103" s="52"/>
+      <c r="AA103" s="74"/>
+    </row>
+    <row r="104" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O104" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="P104" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q104" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R104" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S104" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T104" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U104" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V104" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W104" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X104" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y104" s="50"/>
+      <c r="Z104" s="50"/>
+      <c r="AA104" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O105" s="97"/>
+      <c r="P105" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q105" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="R105" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="S105" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="T105" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="U105" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="V105" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="W105" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="X105" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y105" s="51"/>
+      <c r="Z105" s="51"/>
+      <c r="AA105" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="15:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="98"/>
+      <c r="P106" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q106" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R106" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S106" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T106" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U106" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V106" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W106" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X106" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y106" s="53"/>
+      <c r="Z106" s="52"/>
+      <c r="AA106" s="29"/>
+    </row>
+    <row r="107" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O107" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="Q52" s="23" t="s">
+      <c r="P107" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R52" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="V52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB52" s="29" t="s">
+      <c r="Q107" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R107" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S107" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T107" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="U107" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V107" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W107" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X107" s="50"/>
+      <c r="Y107" s="50"/>
+      <c r="Z107" s="50"/>
+      <c r="AA107" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="AC52" s="85"/>
-    </row>
-    <row r="53" spans="1:30">
-      <c r="A53" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="95"/>
-      <c r="L53" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" s="99"/>
-      <c r="N53" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" s="42"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="23" t="s">
+    </row>
+    <row r="108" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O108" s="97"/>
+      <c r="P108" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="R53" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="S53" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="T53" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="U53" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="V53" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="W53" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="X53" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y53" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z53" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA53" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB53" s="25" t="s">
+      <c r="Q108" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="R108" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="S108" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="T108" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="U108" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="V108" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="W108" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="X108" s="51"/>
+      <c r="Y108" s="51"/>
+      <c r="Z108" s="51"/>
+      <c r="AA108" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AC53" s="31"/>
-    </row>
-    <row r="54" spans="1:30">
-      <c r="A54" s="51"/>
-      <c r="B54" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="I54" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="K54" s="96"/>
-      <c r="L54" s="97" t="s">
-        <v>284</v>
-      </c>
-      <c r="M54" s="100"/>
-      <c r="N54" s="75">
-        <v>10000000</v>
-      </c>
-      <c r="O54" s="43"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="24" t="s">
+    </row>
+    <row r="109" spans="15:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="98"/>
+      <c r="P109" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="R54" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T54" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V54" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X54" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z54" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB54" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC54" s="30"/>
-    </row>
-    <row r="55" spans="1:30">
-      <c r="A55" s="52"/>
-      <c r="B55" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K55" s="98"/>
-      <c r="L55" s="79">
-        <v>32.749141693115234</v>
-      </c>
-      <c r="M55" s="98"/>
-      <c r="N55" s="65">
-        <v>16.81927490234375</v>
-      </c>
-      <c r="O55" s="44"/>
-    </row>
-    <row r="56" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A56" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="95"/>
-      <c r="L56" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="M56" s="101"/>
-      <c r="N56" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="O56" s="42"/>
-      <c r="P56" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="54"/>
-    </row>
-    <row r="57" spans="1:30">
-      <c r="A57" s="51"/>
-      <c r="B57" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="K57" s="96"/>
-      <c r="L57" s="97" t="s">
-        <v>293</v>
-      </c>
-      <c r="M57" s="102"/>
-      <c r="N57" s="67">
-        <v>1000000</v>
-      </c>
-      <c r="O57" s="43"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="19">
-        <v>1</v>
-      </c>
-      <c r="S57" s="20">
-        <v>2</v>
-      </c>
-      <c r="T57" s="20">
-        <v>3</v>
-      </c>
-      <c r="U57" s="20">
-        <v>4</v>
-      </c>
-      <c r="V57" s="20">
-        <v>5</v>
-      </c>
-      <c r="W57" s="20">
-        <v>6</v>
-      </c>
-      <c r="X57" s="20">
-        <v>7</v>
-      </c>
-      <c r="Y57" s="20">
-        <v>8</v>
-      </c>
-      <c r="Z57" s="20">
-        <v>9</v>
-      </c>
-      <c r="AA57" s="20">
-        <v>10</v>
-      </c>
-      <c r="AB57" s="21">
-        <v>11</v>
-      </c>
-      <c r="AC57" s="11">
-        <v>12</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
-      <c r="A58" s="52"/>
-      <c r="B58" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K58" s="98"/>
-      <c r="L58" s="79">
-        <v>29.204946517944336</v>
-      </c>
-      <c r="M58" s="98"/>
-      <c r="N58" s="65">
-        <v>20.537302017211914</v>
-      </c>
-      <c r="O58" s="44"/>
-      <c r="P58" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R58" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="V58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB58" s="60"/>
-      <c r="AC58" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30">
-      <c r="A59" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="60"/>
-      <c r="L59" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M59" s="95"/>
-      <c r="N59" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" s="42"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R59" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S59" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="T59" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="U59" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="V59" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="W59" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="X59" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y59" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z59" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA59" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB59" s="96"/>
-      <c r="AC59" s="67">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30">
-      <c r="A60" s="51"/>
-      <c r="B60" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="I60" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="K60" s="61"/>
-      <c r="L60" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="M60" s="96"/>
-      <c r="N60" s="67">
-        <v>100000</v>
-      </c>
-      <c r="O60" s="43"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R60" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S60" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T60" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U60" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V60" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W60" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X60" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y60" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z60" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA60" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB60" s="94"/>
-      <c r="AC60" s="82">
-        <v>15.24433708190918</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30">
-      <c r="A61" s="52"/>
-      <c r="B61" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61" s="63"/>
-      <c r="L61" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M61" s="94"/>
-      <c r="N61" s="65">
-        <v>22.746009826660156</v>
-      </c>
-      <c r="O61" s="44"/>
-      <c r="P61" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q61" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R61" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="V61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA61" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB61" s="95"/>
-      <c r="AC61" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30">
-      <c r="A62" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="60"/>
-      <c r="L62" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="95"/>
-      <c r="N62" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="O62" s="42"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R62" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="S62" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="T62" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="U62" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="V62" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="W62" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="X62" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y62" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z62" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA62" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB62" s="96"/>
-      <c r="AC62" s="67">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
-      <c r="A63" s="51"/>
-      <c r="B63" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="I63" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="K63" s="61"/>
-      <c r="L63" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="M63" s="96"/>
-      <c r="N63" s="67">
-        <v>10000</v>
-      </c>
-      <c r="O63" s="43"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R63" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T63" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V63" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X63" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z63" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB63" s="94"/>
-      <c r="AC63" s="82">
-        <v>18.800045013427734</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30">
-      <c r="A64" s="52"/>
-      <c r="B64" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K64" s="63"/>
-      <c r="L64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M64" s="94"/>
-      <c r="N64" s="65">
-        <v>27.568336486816406</v>
-      </c>
-      <c r="O64" s="44"/>
-      <c r="P64" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R64" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="V64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA64" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB64" s="95"/>
-      <c r="AC64" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
-      <c r="A65" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65" s="60"/>
-      <c r="L65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M65" s="95"/>
-      <c r="N65" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="O65" s="42"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R65" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="S65" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="T65" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="U65" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="V65" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="W65" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="X65" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y65" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z65" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA65" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB65" s="96"/>
-      <c r="AC65" s="67">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
-      <c r="A66" s="51"/>
-      <c r="B66" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="I66" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="J66" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="K66" s="61"/>
-      <c r="L66" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="M66" s="96"/>
-      <c r="N66" s="68">
-        <v>1000</v>
-      </c>
-      <c r="O66" s="45"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R66" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S66" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T66" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U66" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V66" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W66" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X66" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y66" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z66" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA66" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB66" s="94"/>
-      <c r="AC66" s="82">
-        <v>21.405012130737305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
-      <c r="A67" s="52"/>
-      <c r="B67" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I67" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K67" s="63"/>
-      <c r="L67" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M67" s="94"/>
-      <c r="N67" s="65">
-        <v>31.826486587524414</v>
-      </c>
-      <c r="O67" s="44"/>
-      <c r="P67" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q67" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R67" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="V67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA67" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB67" s="95"/>
-      <c r="AC67" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
-      <c r="A68" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="N68" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="O68" s="42"/>
-      <c r="P68" s="51"/>
-      <c r="Q68" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R68" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="S68" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="T68" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="U68" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="V68" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="W68" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="X68" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y68" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z68" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA68" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB68" s="96"/>
-      <c r="AC68" s="67">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
-      <c r="A69" s="51"/>
-      <c r="B69" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="I69" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="J69" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="N69" s="68">
-        <v>100</v>
-      </c>
-      <c r="O69" s="45"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S69" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U69" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W69" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y69" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA69" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB69" s="94"/>
-      <c r="AC69" s="82">
-        <v>26.114006042480469</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
-      <c r="A70" s="52"/>
-      <c r="B70" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I70" s="79">
-        <v>19.27507209777832</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K70" s="63"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="O70" s="44"/>
-      <c r="P70" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q70" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R70" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="V70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA70" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB70" s="95"/>
-      <c r="AC70" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
-      <c r="A71" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="N71" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="O71" s="46"/>
-      <c r="P71" s="51"/>
-      <c r="Q71" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R71" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="S71" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="T71" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="U71" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="V71" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="W71" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="X71" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y71" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z71" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA71" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB71" s="96"/>
-      <c r="AC71" s="68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
-      <c r="A72" s="51"/>
-      <c r="B72" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="N72" s="76">
-        <v>10</v>
-      </c>
-      <c r="O72" s="45"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R72" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S72" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T72" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="U72" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V72" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W72" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="X72" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y72" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z72" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA72" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB72" s="94"/>
-      <c r="AC72" s="82">
-        <v>29.381458282470703</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A73" s="52"/>
-      <c r="B73" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I73" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73" s="63"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="O73" s="44"/>
-      <c r="P73" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q73" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R73" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S73" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="T73" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="U73" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="V73" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="W73" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="X73" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y73" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z73" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA73" s="60"/>
-      <c r="AB73" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC73" s="66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
-      <c r="A74" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="N74" s="30"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R74" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="S74" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="T74" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="U74" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="V74" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="W74" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="X74" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y74" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z74" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA74" s="61"/>
-      <c r="AB74" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC74" s="68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29">
-      <c r="A75" s="51"/>
-      <c r="B75" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N75" s="31"/>
-      <c r="O75" s="45"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R75" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S75" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="T75" s="79">
-        <v>20.032480239868164</v>
-      </c>
-      <c r="U75" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V75" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="W75" s="79">
-        <v>27.208139419555664</v>
-      </c>
-      <c r="X75" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y75" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z75" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA75" s="62"/>
-      <c r="AB75" s="84"/>
-      <c r="AC75" s="93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A76" s="52"/>
-      <c r="B76" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I76" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J76" s="62"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q76" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R76" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S76" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="T76" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="U76" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="V76" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W76" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X76" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y76" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z76" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA76" s="60"/>
-      <c r="AB76" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC76" s="69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29">
-      <c r="P77" s="51"/>
-      <c r="Q77" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R77" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="S77" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="T77" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="U77" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="V77" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="W77" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="X77" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y77" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z77" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA77" s="61"/>
-      <c r="AB77" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC77" s="68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29">
-      <c r="P78" s="52"/>
-      <c r="Q78" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R78" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S78" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="T78" s="79">
-        <v>25.283378601074219</v>
-      </c>
-      <c r="U78" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V78" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W78" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X78" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y78" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z78" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA78" s="62"/>
-      <c r="AB78" s="73"/>
-      <c r="AC78" s="93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
-      <c r="P79" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q79" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R79" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="S79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="U79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="V79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="W79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="X79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z79" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA79" s="60"/>
-      <c r="AB79" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC79" s="104"/>
-    </row>
-    <row r="80" spans="1:29">
-      <c r="P80" s="51"/>
-      <c r="Q80" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R80" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="S80" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="T80" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="U80" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="V80" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="W80" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="X80" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y80" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z80" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA80" s="61"/>
-      <c r="AB80" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC80" s="105"/>
-    </row>
-    <row r="81" spans="16:29" ht="15.75" thickBot="1">
-      <c r="P81" s="52"/>
-      <c r="Q81" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R81" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S81" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T81" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U81" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="V81" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W81" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="X81" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y81" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z81" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA81" s="62"/>
-      <c r="AB81" s="73"/>
-      <c r="AC81" s="104"/>
-    </row>
-    <row r="83" spans="16:29">
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="59"/>
-      <c r="V83" s="59"/>
-      <c r="W83" s="59"/>
-      <c r="X83" s="59"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="59"/>
-      <c r="AA83" s="59"/>
-    </row>
-    <row r="84" spans="16:29">
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
-      <c r="X84" s="59"/>
-      <c r="Y84" s="59"/>
-      <c r="Z84" s="59"/>
-      <c r="AA84" s="59"/>
-    </row>
-    <row r="85" spans="16:29">
-      <c r="Q85" s="47"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="59"/>
-      <c r="Y85" s="59"/>
-      <c r="Z85" s="59"/>
-      <c r="AA85" s="59"/>
-    </row>
-    <row r="86" spans="16:29">
-      <c r="Q86" s="47"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
-      <c r="X86" s="59"/>
-      <c r="Y86" s="59"/>
-      <c r="Z86" s="59"/>
-      <c r="AA86" s="59"/>
-    </row>
-    <row r="87" spans="16:29">
-      <c r="Q87" s="47"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
-      <c r="T87" s="59"/>
-      <c r="U87" s="59"/>
-      <c r="V87" s="59"/>
-      <c r="W87" s="59"/>
-      <c r="X87" s="59"/>
-      <c r="Y87" s="59"/>
-      <c r="Z87" s="59"/>
-      <c r="AA87" s="59"/>
-    </row>
-    <row r="88" spans="16:29">
-      <c r="Q88" s="47"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-    </row>
-    <row r="89" spans="16:29">
-      <c r="Q89" s="47"/>
-      <c r="R89" s="59"/>
-      <c r="S89" s="59"/>
-      <c r="T89" s="59"/>
-      <c r="U89" s="59"/>
-      <c r="V89" s="59"/>
-      <c r="W89" s="59"/>
-      <c r="X89" s="59"/>
-      <c r="Y89" s="59"/>
-      <c r="Z89" s="59"/>
-      <c r="AA89" s="59"/>
-    </row>
-    <row r="90" spans="16:29">
-      <c r="Q90" s="47"/>
-      <c r="R90" s="59"/>
-      <c r="S90" s="59"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="59"/>
-      <c r="V90" s="59"/>
-      <c r="W90" s="59"/>
-      <c r="X90" s="59"/>
-      <c r="Y90" s="59"/>
-      <c r="Z90" s="59"/>
-      <c r="AA90" s="59"/>
-    </row>
-    <row r="91" spans="16:29">
-      <c r="Q91" s="47"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="47"/>
-      <c r="W91" s="47"/>
-      <c r="X91" s="47"/>
-      <c r="Y91" s="47"/>
-      <c r="Z91" s="48"/>
-    </row>
-    <row r="92" spans="16:29">
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="16"/>
+      <c r="Q109" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R109" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S109" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T109" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U109" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V109" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W109" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X109" s="52"/>
+      <c r="Y109" s="53"/>
+      <c r="Z109" s="52"/>
+      <c r="AA109" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P79:P81"/>
-    <mergeCell ref="P56:V56"/>
-    <mergeCell ref="P29:V29"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="P40:P42"/>
-    <mergeCell ref="P43:P45"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="P73:P75"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="P46:P48"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="O56:U56"/>
+    <mergeCell ref="O29:U29"/>
+    <mergeCell ref="O58:O60"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="O73:O75"/>
+    <mergeCell ref="O76:O78"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="O70:O72"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W56:X56"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="O2:U2"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="W84:X84"/>
+    <mergeCell ref="O86:O88"/>
+    <mergeCell ref="O104:O106"/>
+    <mergeCell ref="O107:O109"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="O92:O94"/>
+    <mergeCell ref="O95:O97"/>
+    <mergeCell ref="O98:O100"/>
+    <mergeCell ref="O101:O103"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8192,13 +8053,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1ECDE2-0FC7-498A-A197-325657446AB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1ECDE2-0FC7-498A-A197-325657446AB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="68f9834a-47db-4dd9-9f26-213cbb22c8a0"/>
+    <ds:schemaRef ds:uri="50bf555d-2b28-452c-9b06-416f2f267a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCAB6429-970F-40EA-B09E-67569D80AC78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCAB6429-970F-40EA-B09E-67569D80AC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="68f9834a-47db-4dd9-9f26-213cbb22c8a0"/>
+    <ds:schemaRef ds:uri="50bf555d-2b28-452c-9b06-416f2f267a7f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA65185-49A6-4605-9649-AC256AAA6677}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA65185-49A6-4605-9649-AC256AAA6677}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>